--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2672.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2672.xlsx
@@ -354,7 +354,7 @@
         <v>2.422054609803229</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.328497904248807</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2672.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2672.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.160717299677512</v>
+        <v>1.142531633377075</v>
       </c>
       <c r="B1">
-        <v>2.422054609803229</v>
+        <v>1.254926204681396</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>1.488237619400024</v>
       </c>
       <c r="D1">
-        <v>2.328497904248807</v>
+        <v>2.629266738891602</v>
       </c>
       <c r="E1">
-        <v>1.210981207672262</v>
+        <v>4.470052242279053</v>
       </c>
     </row>
   </sheetData>
